--- a/ch3_reference/2022__presentasi/Data_2019__Antimicrobial_peptide_metal_broilers.xlsx
+++ b/ch3_reference/2022__presentasi/Data_2019__Antimicrobial_peptide_metal_broilers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\Work\pelatihan-2020-metal\ch3_reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\Work\pelatihan-2020-metal\ch3_reference\2022__presentasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7818B19-E519-457C-8D35-E6E03C5F478E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616DBF92-DDA3-4421-A185-5DA5B3603380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12682,7 +12682,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="FS1" sqref="FS1"/>
       <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
